--- a/eBirdDataProcessor/BucksFrequencyData.xlsx
+++ b/eBirdDataProcessor/BucksFrequencyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="361">
   <si>
     <t>Dark-eyed Junco</t>
   </si>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1492,7 @@
         <v>179</v>
       </c>
       <c r="P1">
-        <v>3355</v>
+        <v>3495</v>
       </c>
       <c r="Q1" t="s">
         <v>180</v>
@@ -1640,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>69.15052</v>
+        <v>69.070099999999996</v>
       </c>
       <c r="Q3" t="s">
         <v>7</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>66.229510000000005</v>
+        <v>65.922740000000005</v>
       </c>
       <c r="Q4" t="s">
         <v>5</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="P5">
-        <v>65.18629</v>
+        <v>65.236050000000006</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="P6">
-        <v>64.500749999999996</v>
+        <v>64.949929999999995</v>
       </c>
       <c r="Q6" t="s">
         <v>104</v>
@@ -1936,7 +1936,7 @@
         <v>104</v>
       </c>
       <c r="P7">
-        <v>59.642330000000001</v>
+        <v>60.286119999999997</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="P8">
-        <v>54.426229999999997</v>
+        <v>54.4206</v>
       </c>
       <c r="Q8" t="s">
         <v>13</v>
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="P9">
-        <v>51.415799999999997</v>
+        <v>51.416310000000003</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
@@ -2155,10 +2155,10 @@
         <v>54.517020000000002</v>
       </c>
       <c r="O10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P10">
-        <v>49.985100000000003</v>
+        <v>49.64235</v>
       </c>
       <c r="Q10" t="s">
         <v>10</v>
@@ -2229,10 +2229,10 @@
         <v>54.03058</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>49.269739999999999</v>
+        <v>49.470669999999998</v>
       </c>
       <c r="Q11" t="s">
         <v>11</v>
@@ -2306,7 +2306,7 @@
         <v>11</v>
       </c>
       <c r="P12">
-        <v>48.315939999999998</v>
+        <v>48.755360000000003</v>
       </c>
       <c r="Q12" t="s">
         <v>14</v>
@@ -2380,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="P13">
-        <v>46.289119999999997</v>
+        <v>46.523609999999998</v>
       </c>
       <c r="Q13" t="s">
         <v>15</v>
@@ -2454,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="P14">
-        <v>44.947839999999999</v>
+        <v>45.264659999999999</v>
       </c>
       <c r="Q14" t="s">
         <v>18</v>
@@ -2528,7 +2528,7 @@
         <v>15</v>
       </c>
       <c r="P15">
-        <v>44.381520000000002</v>
+        <v>44.635190000000001</v>
       </c>
       <c r="Q15" t="s">
         <v>8</v>
@@ -2602,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="P16">
-        <v>38.748139999999999</v>
+        <v>39.370530000000002</v>
       </c>
       <c r="Q16" t="s">
         <v>9</v>
@@ -2676,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="P17">
-        <v>37.466470000000001</v>
+        <v>37.62518</v>
       </c>
       <c r="Q17" t="s">
         <v>3</v>
@@ -2750,7 +2750,7 @@
         <v>227</v>
       </c>
       <c r="P18">
-        <v>34.03875</v>
+        <v>34.334760000000003</v>
       </c>
       <c r="Q18" t="s">
         <v>29</v>
@@ -2824,7 +2824,7 @@
         <v>29</v>
       </c>
       <c r="P19">
-        <v>33.204169999999998</v>
+        <v>33.791130000000003</v>
       </c>
       <c r="Q19" t="s">
         <v>26</v>
@@ -2898,7 +2898,7 @@
         <v>19</v>
       </c>
       <c r="P20">
-        <v>32.548439999999999</v>
+        <v>32.303289999999997</v>
       </c>
       <c r="Q20" t="s">
         <v>20</v>
@@ -2972,7 +2972,7 @@
         <v>198</v>
       </c>
       <c r="P21">
-        <v>31.892700000000001</v>
+        <v>31.645209999999999</v>
       </c>
       <c r="Q21" t="s">
         <v>12</v>
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>30.402380000000001</v>
+        <v>30.472100000000001</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
@@ -3120,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="P23">
-        <v>29.120719999999999</v>
+        <v>28.78398</v>
       </c>
       <c r="Q23" t="s">
         <v>16</v>
@@ -3194,7 +3194,7 @@
         <v>54</v>
       </c>
       <c r="P24">
-        <v>27.779430000000001</v>
+        <v>27.696709999999999</v>
       </c>
       <c r="Q24" t="s">
         <v>98</v>
@@ -3268,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="P25">
-        <v>25.752610000000001</v>
+        <v>26.323319999999999</v>
       </c>
       <c r="Q25" t="s">
         <v>19</v>
@@ -3342,7 +3342,7 @@
         <v>21</v>
       </c>
       <c r="P26">
-        <v>24.381519999999998</v>
+        <v>24.864090000000001</v>
       </c>
       <c r="Q26" t="s">
         <v>138</v>
@@ -3416,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="P27">
-        <v>24.26229</v>
+        <v>24.320460000000001</v>
       </c>
       <c r="Q27" t="s">
         <v>36</v>
@@ -3487,10 +3487,10 @@
         <v>27.449619999999999</v>
       </c>
       <c r="O28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P28">
-        <v>22.354690000000002</v>
+        <v>22.060089999999999</v>
       </c>
       <c r="Q28" t="s">
         <v>236</v>
@@ -3561,10 +3561,10 @@
         <v>22.550380000000001</v>
       </c>
       <c r="O29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P29">
-        <v>21.669149999999998</v>
+        <v>22.060089999999999</v>
       </c>
       <c r="Q29" t="s">
         <v>126</v>
@@ -3635,10 +3635,10 @@
         <v>22.16817</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="P30">
-        <v>20.953800000000001</v>
+        <v>20.915590000000002</v>
       </c>
       <c r="Q30" t="s">
         <v>237</v>
@@ -3709,10 +3709,10 @@
         <v>21.403749999999999</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="P31">
-        <v>20.715350000000001</v>
+        <v>20.80114</v>
       </c>
       <c r="Q31" t="s">
         <v>94</v>
@@ -3786,7 +3786,7 @@
         <v>115</v>
       </c>
       <c r="P32">
-        <v>19.284649999999999</v>
+        <v>19.17024</v>
       </c>
       <c r="Q32" t="s">
         <v>213</v>
@@ -3860,7 +3860,7 @@
         <v>221</v>
       </c>
       <c r="P33">
-        <v>19.016390000000001</v>
+        <v>19.055789999999998</v>
       </c>
       <c r="Q33" t="s">
         <v>227</v>
@@ -3931,10 +3931,10 @@
         <v>20.43085</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P34">
-        <v>17.04918</v>
+        <v>17.653790000000001</v>
       </c>
       <c r="Q34" t="s">
         <v>22</v>
@@ -4005,10 +4005,10 @@
         <v>19.909659999999999</v>
       </c>
       <c r="O35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P35">
-        <v>16.840540000000001</v>
+        <v>17.453499999999998</v>
       </c>
       <c r="Q35" t="s">
         <v>251</v>
@@ -4079,10 +4079,10 @@
         <v>19.59694</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="P36">
-        <v>16.691510000000001</v>
+        <v>17.33906</v>
       </c>
       <c r="Q36" t="s">
         <v>33</v>
@@ -4153,10 +4153,10 @@
         <v>18.207090000000001</v>
       </c>
       <c r="O37" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="P37">
-        <v>16.631889999999999</v>
+        <v>16.76681</v>
       </c>
       <c r="Q37" t="s">
         <v>286</v>
@@ -4227,10 +4227,10 @@
         <v>17.616399999999999</v>
       </c>
       <c r="O38" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="P38">
-        <v>16.333829999999999</v>
+        <v>16.309010000000001</v>
       </c>
       <c r="Q38" t="s">
         <v>67</v>
@@ -4301,10 +4301,10 @@
         <v>17.477419999999999</v>
       </c>
       <c r="O39" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="P39">
-        <v>15.7079</v>
+        <v>16.309010000000001</v>
       </c>
       <c r="Q39" t="s">
         <v>54</v>
@@ -4375,10 +4375,10 @@
         <v>16.74774</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="P40">
-        <v>14.93294</v>
+        <v>15.73677</v>
       </c>
       <c r="Q40" t="s">
         <v>194</v>
@@ -4449,10 +4449,10 @@
         <v>16.191800000000001</v>
       </c>
       <c r="O41" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="P41">
-        <v>14.93294</v>
+        <v>14.763949999999999</v>
       </c>
       <c r="Q41" t="s">
         <v>215</v>
@@ -4523,10 +4523,10 @@
         <v>15.32314</v>
       </c>
       <c r="O42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P42">
-        <v>14.57526</v>
+        <v>14.735340000000001</v>
       </c>
       <c r="Q42" t="s">
         <v>216</v>
@@ -4597,10 +4597,10 @@
         <v>15.18416</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="P43">
-        <v>14.247389999999999</v>
+        <v>14.56366</v>
       </c>
       <c r="Q43" t="s">
         <v>17</v>
@@ -4671,10 +4671,10 @@
         <v>15.114660000000001</v>
       </c>
       <c r="O44" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="P44">
-        <v>13.740690000000001</v>
+        <v>14.363379999999999</v>
       </c>
       <c r="Q44" t="s">
         <v>25</v>
@@ -4748,7 +4748,7 @@
         <v>57</v>
       </c>
       <c r="P45">
-        <v>13.472429999999999</v>
+        <v>13.276109999999999</v>
       </c>
       <c r="Q45" t="s">
         <v>221</v>
@@ -4819,10 +4819,10 @@
         <v>13.759550000000001</v>
       </c>
       <c r="O46" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="P46">
-        <v>12.876300000000001</v>
+        <v>13.04721</v>
       </c>
       <c r="Q46" t="s">
         <v>41</v>
@@ -4893,10 +4893,10 @@
         <v>13.064629999999999</v>
       </c>
       <c r="O47" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="P47">
-        <v>12.78689</v>
+        <v>12.7897</v>
       </c>
       <c r="Q47" t="s">
         <v>141</v>
@@ -4970,7 +4970,7 @@
         <v>33</v>
       </c>
       <c r="P48">
-        <v>11.952310000000001</v>
+        <v>12.36051</v>
       </c>
       <c r="Q48" t="s">
         <v>85</v>
@@ -5041,10 +5041,10 @@
         <v>12.265459999999999</v>
       </c>
       <c r="O49" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="P49">
-        <v>11.8927</v>
+        <v>12.188840000000001</v>
       </c>
       <c r="Q49" t="s">
         <v>230</v>
@@ -5115,10 +5115,10 @@
         <v>12.056979999999999</v>
       </c>
       <c r="O50" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="P50">
-        <v>11.74367</v>
+        <v>12.13162</v>
       </c>
       <c r="Q50" t="s">
         <v>48</v>
@@ -5189,10 +5189,10 @@
         <v>10.701879999999999</v>
       </c>
       <c r="O51" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="P51">
-        <v>11.74367</v>
+        <v>12.045780000000001</v>
       </c>
       <c r="Q51" t="s">
         <v>225</v>
@@ -5263,10 +5263,10 @@
         <v>10.632379999999999</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="P52">
-        <v>11.564830000000001</v>
+        <v>11.73104</v>
       </c>
       <c r="Q52" t="s">
         <v>30</v>
@@ -5337,10 +5337,10 @@
         <v>10.493399999999999</v>
       </c>
       <c r="O53" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="P53">
-        <v>11.445600000000001</v>
+        <v>11.645210000000001</v>
       </c>
       <c r="Q53" t="s">
         <v>60</v>
@@ -5414,7 +5414,7 @@
         <v>193</v>
       </c>
       <c r="P54">
-        <v>11.38599</v>
+        <v>11.416309999999999</v>
       </c>
       <c r="Q54" t="s">
         <v>35</v>
@@ -5488,7 +5488,7 @@
         <v>128</v>
       </c>
       <c r="P55">
-        <v>11.08793</v>
+        <v>11.30186</v>
       </c>
       <c r="Q55" t="s">
         <v>31</v>
@@ -5559,10 +5559,10 @@
         <v>8.1653900000000004</v>
       </c>
       <c r="O56" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="P56">
-        <v>9.8956800000000005</v>
+        <v>10.329040000000001</v>
       </c>
       <c r="Q56" t="s">
         <v>32</v>
@@ -5633,10 +5633,10 @@
         <v>7.9916600000000004</v>
       </c>
       <c r="O57" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="P57">
-        <v>9.3591700000000007</v>
+        <v>9.7568000000000001</v>
       </c>
       <c r="Q57" t="s">
         <v>115</v>
@@ -5710,7 +5710,7 @@
         <v>38</v>
       </c>
       <c r="P58">
-        <v>9.1803299999999997</v>
+        <v>9.2703900000000008</v>
       </c>
       <c r="Q58" t="s">
         <v>38</v>
@@ -5784,7 +5784,7 @@
         <v>85</v>
       </c>
       <c r="P59">
-        <v>9.1803299999999997</v>
+        <v>8.9842600000000008</v>
       </c>
       <c r="Q59" t="s">
         <v>226</v>
@@ -5858,7 +5858,7 @@
         <v>41</v>
       </c>
       <c r="P60">
-        <v>8.8524600000000007</v>
+        <v>8.6981400000000004</v>
       </c>
       <c r="Q60" t="s">
         <v>250</v>
@@ -5932,7 +5932,7 @@
         <v>231</v>
       </c>
       <c r="P61">
-        <v>8.2265300000000003</v>
+        <v>8.5550800000000002</v>
       </c>
       <c r="Q61" t="s">
         <v>245</v>
@@ -6006,7 +6006,7 @@
         <v>195</v>
       </c>
       <c r="P62">
-        <v>8.1967199999999991</v>
+        <v>8.3261800000000008</v>
       </c>
       <c r="Q62" t="s">
         <v>28</v>
@@ -6080,7 +6080,7 @@
         <v>218</v>
       </c>
       <c r="P63">
-        <v>7.9284600000000003</v>
+        <v>8.1545100000000001</v>
       </c>
       <c r="Q63" t="s">
         <v>56</v>
@@ -6151,10 +6151,10 @@
         <v>6.8102900000000002</v>
       </c>
       <c r="O64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P64">
-        <v>7.7794299999999996</v>
+        <v>7.8970000000000002</v>
       </c>
       <c r="Q64" t="s">
         <v>44</v>
@@ -6225,10 +6225,10 @@
         <v>6.6018100000000004</v>
       </c>
       <c r="O65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P65">
-        <v>7.7198200000000003</v>
+        <v>7.7539300000000004</v>
       </c>
       <c r="Q65" t="s">
         <v>206</v>
@@ -6302,7 +6302,7 @@
         <v>206</v>
       </c>
       <c r="P66">
-        <v>7.2131100000000004</v>
+        <v>7.3819699999999999</v>
       </c>
       <c r="Q66" t="s">
         <v>198</v>
@@ -6373,10 +6373,10 @@
         <v>5.6289100000000003</v>
       </c>
       <c r="O67" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P67">
-        <v>6.8852500000000001</v>
+        <v>6.8669500000000001</v>
       </c>
       <c r="Q67" t="s">
         <v>212</v>
@@ -6447,10 +6447,10 @@
         <v>5.4551800000000004</v>
       </c>
       <c r="O68" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="P68">
-        <v>6.8554399999999998</v>
+        <v>6.7525000000000004</v>
       </c>
       <c r="Q68" t="s">
         <v>164</v>
@@ -6521,10 +6521,10 @@
         <v>5.0034700000000001</v>
       </c>
       <c r="O69" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P69">
-        <v>6.2593100000000002</v>
+        <v>6.7238899999999999</v>
       </c>
       <c r="Q69" t="s">
         <v>113</v>
@@ -6595,10 +6595,10 @@
         <v>4.8992399999999998</v>
       </c>
       <c r="O70" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="P70">
-        <v>6.2295100000000003</v>
+        <v>6.3233199999999998</v>
       </c>
       <c r="Q70" t="s">
         <v>89</v>
@@ -6669,10 +6669,10 @@
         <v>4.8297400000000001</v>
       </c>
       <c r="O71" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P71">
-        <v>6.0804799999999997</v>
+        <v>6.1802599999999996</v>
       </c>
       <c r="Q71" t="s">
         <v>238</v>
@@ -6746,7 +6746,7 @@
         <v>66</v>
       </c>
       <c r="P72">
-        <v>5.9612499999999997</v>
+        <v>5.9799699999999998</v>
       </c>
       <c r="Q72" t="s">
         <v>218</v>
@@ -6820,7 +6820,7 @@
         <v>56</v>
       </c>
       <c r="P73">
-        <v>5.1266800000000003</v>
+        <v>5.52217</v>
       </c>
       <c r="Q73" t="s">
         <v>220</v>
@@ -6894,7 +6894,7 @@
         <v>288</v>
       </c>
       <c r="P74">
-        <v>4.9776499999999997</v>
+        <v>5.46495</v>
       </c>
       <c r="Q74" t="s">
         <v>37</v>
@@ -6968,7 +6968,7 @@
         <v>226</v>
       </c>
       <c r="P75">
-        <v>4.9478400000000002</v>
+        <v>4.7782499999999999</v>
       </c>
       <c r="Q75" t="s">
         <v>193</v>
@@ -7039,10 +7039,10 @@
         <v>3.3356499999999998</v>
       </c>
       <c r="O76" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="P76">
-        <v>4.2324900000000003</v>
+        <v>4.6924200000000003</v>
       </c>
       <c r="Q76" t="s">
         <v>246</v>
@@ -7116,7 +7116,7 @@
         <v>222</v>
       </c>
       <c r="P77">
-        <v>4.1430699999999998</v>
+        <v>4.2918500000000002</v>
       </c>
       <c r="Q77" t="s">
         <v>195</v>
@@ -7187,10 +7187,10 @@
         <v>2.9186899999999998</v>
       </c>
       <c r="O78" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="P78">
-        <v>4.1430699999999998</v>
+        <v>4.0915600000000003</v>
       </c>
       <c r="Q78" t="s">
         <v>57</v>
@@ -7261,10 +7261,10 @@
         <v>2.8144499999999999</v>
       </c>
       <c r="O79" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="P79">
-        <v>3.90462</v>
+        <v>3.9771100000000001</v>
       </c>
       <c r="Q79" t="s">
         <v>79</v>
@@ -7335,10 +7335,10 @@
         <v>2.5364800000000001</v>
       </c>
       <c r="O80" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="P80">
-        <v>3.7555900000000002</v>
+        <v>3.89127</v>
       </c>
       <c r="Q80" t="s">
         <v>222</v>
@@ -7409,10 +7409,10 @@
         <v>2.4322400000000002</v>
       </c>
       <c r="O81" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="P81">
-        <v>3.69598</v>
+        <v>3.6337600000000001</v>
       </c>
       <c r="Q81" t="s">
         <v>66</v>
@@ -7483,10 +7483,10 @@
         <v>1.8763000000000001</v>
       </c>
       <c r="O82" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="P82">
-        <v>3.60656</v>
+        <v>3.5765400000000001</v>
       </c>
       <c r="Q82" t="s">
         <v>63</v>
@@ -7557,10 +7557,10 @@
         <v>1.7025699999999999</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="P83">
-        <v>3.48733</v>
+        <v>3.54793</v>
       </c>
       <c r="Q83" t="s">
         <v>202</v>
@@ -7634,7 +7634,7 @@
         <v>270</v>
       </c>
       <c r="P84">
-        <v>2.9806300000000001</v>
+        <v>3.0042900000000001</v>
       </c>
       <c r="Q84" t="s">
         <v>144</v>
@@ -7708,7 +7708,7 @@
         <v>248</v>
       </c>
       <c r="P85">
-        <v>2.9806300000000001</v>
+        <v>2.8612299999999999</v>
       </c>
       <c r="Q85" t="s">
         <v>217</v>
@@ -7779,10 +7779,10 @@
         <v>1.52884</v>
       </c>
       <c r="O86" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="P86">
-        <v>2.8315899999999998</v>
+        <v>2.7467800000000002</v>
       </c>
       <c r="Q86" t="s">
         <v>300</v>
@@ -7853,10 +7853,10 @@
         <v>1.4593499999999999</v>
       </c>
       <c r="O87" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="P87">
-        <v>2.8315899999999998</v>
+        <v>2.7467800000000002</v>
       </c>
       <c r="Q87" t="s">
         <v>40</v>
@@ -7927,10 +7927,10 @@
         <v>1.35511</v>
       </c>
       <c r="O88" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="P88">
-        <v>2.7123699999999999</v>
+        <v>2.7181700000000002</v>
       </c>
       <c r="Q88" t="s">
         <v>231</v>
@@ -8001,10 +8001,10 @@
         <v>1.35511</v>
       </c>
       <c r="O89" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="P89">
-        <v>2.59314</v>
+        <v>2.6895600000000002</v>
       </c>
       <c r="Q89" t="s">
         <v>199</v>
@@ -8075,10 +8075,10 @@
         <v>1.2508699999999999</v>
       </c>
       <c r="O90" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="P90">
-        <v>2.5335299999999998</v>
+        <v>2.5464899999999999</v>
       </c>
       <c r="Q90" t="s">
         <v>255</v>
@@ -8149,10 +8149,10 @@
         <v>1.2508699999999999</v>
       </c>
       <c r="O91" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P91">
-        <v>2.4441099999999998</v>
+        <v>2.5178799999999999</v>
       </c>
       <c r="Q91" t="s">
         <v>239</v>
@@ -8226,7 +8226,7 @@
         <v>294</v>
       </c>
       <c r="P92">
-        <v>2.3546900000000002</v>
+        <v>2.26037</v>
       </c>
       <c r="Q92" t="s">
         <v>201</v>
@@ -8297,10 +8297,10 @@
         <v>1.2508699999999999</v>
       </c>
       <c r="O93" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="P93">
-        <v>2.1162399999999999</v>
+        <v>2.1173099999999998</v>
       </c>
       <c r="Q93" t="s">
         <v>233</v>
@@ -8371,10 +8371,10 @@
         <v>1.2508699999999999</v>
       </c>
       <c r="O94" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="P94">
-        <v>1.99702</v>
+        <v>2.0886999999999998</v>
       </c>
       <c r="Q94" t="s">
         <v>2</v>
@@ -8445,10 +8445,10 @@
         <v>1.2161200000000001</v>
       </c>
       <c r="O95" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="P95">
-        <v>1.99702</v>
+        <v>2.0600900000000002</v>
       </c>
       <c r="Q95" t="s">
         <v>149</v>
@@ -8519,10 +8519,10 @@
         <v>1.2161200000000001</v>
       </c>
       <c r="O96" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="P96">
-        <v>1.99702</v>
+        <v>2.0600900000000002</v>
       </c>
       <c r="Q96" t="s">
         <v>24</v>
@@ -8593,10 +8593,10 @@
         <v>1.14663</v>
       </c>
       <c r="O97" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="P97">
-        <v>1.9374100000000001</v>
+        <v>1.9170199999999999</v>
       </c>
       <c r="Q97" t="s">
         <v>219</v>
@@ -8667,10 +8667,10 @@
         <v>1.0423899999999999</v>
       </c>
       <c r="O98" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="P98">
-        <v>1.84799</v>
+        <v>1.9170199999999999</v>
       </c>
       <c r="Q98" t="s">
         <v>288</v>
@@ -8744,7 +8744,7 @@
         <v>101</v>
       </c>
       <c r="P99">
-        <v>1.7883800000000001</v>
+        <v>1.7167399999999999</v>
       </c>
       <c r="Q99" t="s">
         <v>61</v>
@@ -8815,10 +8815,10 @@
         <v>1.0423899999999999</v>
       </c>
       <c r="O100" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="P100">
-        <v>1.75857</v>
+        <v>1.7167399999999999</v>
       </c>
       <c r="Q100" t="s">
         <v>49</v>
@@ -8889,10 +8889,10 @@
         <v>0.97289999999999999</v>
       </c>
       <c r="O101" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="P101">
-        <v>1.6691499999999999</v>
+        <v>1.6881299999999999</v>
       </c>
       <c r="Q101" t="s">
         <v>81</v>
@@ -8966,7 +8966,7 @@
         <v>238</v>
       </c>
       <c r="P102">
-        <v>1.60954</v>
+        <v>1.6309</v>
       </c>
       <c r="Q102" t="s">
         <v>249</v>
@@ -9040,7 +9040,7 @@
         <v>247</v>
       </c>
       <c r="P103">
-        <v>1.54993</v>
+        <v>1.60229</v>
       </c>
       <c r="Q103" t="s">
         <v>272</v>
@@ -9111,10 +9111,10 @@
         <v>0.76441999999999999</v>
       </c>
       <c r="O104" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="P104">
-        <v>1.5201199999999999</v>
+        <v>1.57368</v>
       </c>
       <c r="Q104" t="s">
         <v>224</v>
@@ -9185,10 +9185,10 @@
         <v>0.72967000000000004</v>
       </c>
       <c r="O105" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="P105">
-        <v>1.49031</v>
+        <v>1.5164500000000001</v>
       </c>
       <c r="Q105" t="s">
         <v>275</v>
@@ -9259,10 +9259,10 @@
         <v>0.69493000000000005</v>
       </c>
       <c r="O106" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="P106">
-        <v>1.4307000000000001</v>
+        <v>1.4878400000000001</v>
       </c>
       <c r="Q106" t="s">
         <v>154</v>
@@ -9336,7 +9336,7 @@
         <v>234</v>
       </c>
       <c r="P107">
-        <v>1.2816700000000001</v>
+        <v>1.3733900000000001</v>
       </c>
       <c r="Q107" t="s">
         <v>252</v>
@@ -9407,10 +9407,10 @@
         <v>0.62543000000000004</v>
       </c>
       <c r="O108" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="P108">
-        <v>1.25186</v>
+        <v>1.3447800000000001</v>
       </c>
       <c r="Q108" t="s">
         <v>214</v>
@@ -9481,10 +9481,10 @@
         <v>0.62543000000000004</v>
       </c>
       <c r="O109" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="P109">
-        <v>1.2220599999999999</v>
+        <v>1.3161700000000001</v>
       </c>
       <c r="Q109" t="s">
         <v>88</v>
@@ -9555,10 +9555,10 @@
         <v>0.59069000000000005</v>
       </c>
       <c r="O110" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="P110">
-        <v>1.2220599999999999</v>
+        <v>1.2017199999999999</v>
       </c>
       <c r="Q110" t="s">
         <v>196</v>
@@ -9629,10 +9629,10 @@
         <v>0.55593999999999999</v>
       </c>
       <c r="O111" t="s">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="P111">
-        <v>1.19225</v>
+        <v>1.1731</v>
       </c>
       <c r="Q111" t="s">
         <v>156</v>
@@ -9703,10 +9703,10 @@
         <v>0.45169999999999999</v>
       </c>
       <c r="O112" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="P112">
-        <v>1.1624399999999999</v>
+        <v>1.1731</v>
       </c>
       <c r="Q112" t="s">
         <v>270</v>
@@ -9777,10 +9777,10 @@
         <v>0.41696</v>
       </c>
       <c r="O113" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="P113">
-        <v>1.1624399999999999</v>
+        <v>1.1731</v>
       </c>
       <c r="Q113" t="s">
         <v>110</v>
@@ -9854,7 +9854,7 @@
         <v>110</v>
       </c>
       <c r="P114">
-        <v>1.1326400000000001</v>
+        <v>1.14449</v>
       </c>
       <c r="Q114" t="s">
         <v>42</v>
@@ -9925,10 +9925,10 @@
         <v>0.38220999999999999</v>
       </c>
       <c r="O115" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="P115">
-        <v>1.1326400000000001</v>
+        <v>1.11588</v>
       </c>
       <c r="Q115" t="s">
         <v>90</v>
@@ -9999,10 +9999,10 @@
         <v>0.34745999999999999</v>
       </c>
       <c r="O116" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="P116">
-        <v>1.10283</v>
+        <v>1.11588</v>
       </c>
       <c r="Q116" t="s">
         <v>234</v>
@@ -10073,10 +10073,10 @@
         <v>0.34745999999999999</v>
       </c>
       <c r="O117" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="P117">
-        <v>1.10283</v>
+        <v>1.08727</v>
       </c>
       <c r="Q117" t="s">
         <v>101</v>
@@ -10147,10 +10147,10 @@
         <v>0.34745999999999999</v>
       </c>
       <c r="O118" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="P118">
-        <v>1.10283</v>
+        <v>1.0586599999999999</v>
       </c>
       <c r="Q118" t="s">
         <v>147</v>
@@ -10221,10 +10221,10 @@
         <v>0.31272</v>
       </c>
       <c r="O119" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="P119">
-        <v>1.0730299999999999</v>
+        <v>1.0586599999999999</v>
       </c>
       <c r="Q119" t="s">
         <v>128</v>
@@ -10295,10 +10295,10 @@
         <v>0.31272</v>
       </c>
       <c r="O120" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="P120">
-        <v>0.98360999999999998</v>
+        <v>1.0300400000000001</v>
       </c>
       <c r="Q120" t="s">
         <v>27</v>
@@ -10369,10 +10369,10 @@
         <v>0.31272</v>
       </c>
       <c r="O121" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="P121">
-        <v>0.95379999999999998</v>
+        <v>0.97282000000000002</v>
       </c>
       <c r="Q121" t="s">
         <v>77</v>
@@ -10443,10 +10443,10 @@
         <v>0.31272</v>
       </c>
       <c r="O122" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="P122">
-        <v>0.92398999999999998</v>
+        <v>0.91559000000000001</v>
       </c>
       <c r="Q122" t="s">
         <v>260</v>
@@ -10520,7 +10520,7 @@
         <v>276</v>
       </c>
       <c r="P123">
-        <v>0.89419000000000004</v>
+        <v>0.85836999999999997</v>
       </c>
       <c r="Q123" t="s">
         <v>34</v>
@@ -10591,10 +10591,10 @@
         <v>0.24321999999999999</v>
       </c>
       <c r="O124" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="P124">
-        <v>0.83457999999999999</v>
+        <v>0.85836999999999997</v>
       </c>
       <c r="Q124" t="s">
         <v>70</v>
@@ -10668,7 +10668,7 @@
         <v>266</v>
       </c>
       <c r="P125">
-        <v>0.83457999999999999</v>
+        <v>0.82976000000000005</v>
       </c>
       <c r="Q125" t="s">
         <v>71</v>
@@ -10739,10 +10739,10 @@
         <v>0.17373</v>
       </c>
       <c r="O126" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="P126">
-        <v>0.77495999999999998</v>
+        <v>0.80113999999999996</v>
       </c>
       <c r="Q126" t="s">
         <v>228</v>
@@ -10816,7 +10816,7 @@
         <v>89</v>
       </c>
       <c r="P127">
-        <v>0.74516000000000004</v>
+        <v>0.71531</v>
       </c>
       <c r="Q127" t="s">
         <v>240</v>
@@ -10890,7 +10890,7 @@
         <v>235</v>
       </c>
       <c r="P128">
-        <v>0.71535000000000004</v>
+        <v>0.68669999999999998</v>
       </c>
       <c r="Q128" t="s">
         <v>294</v>
@@ -10964,7 +10964,7 @@
         <v>71</v>
       </c>
       <c r="P129">
-        <v>0.59613000000000005</v>
+        <v>0.57225000000000004</v>
       </c>
       <c r="Q129" t="s">
         <v>290</v>
@@ -11038,7 +11038,7 @@
         <v>244</v>
       </c>
       <c r="P130">
-        <v>0.59613000000000005</v>
+        <v>0.57225000000000004</v>
       </c>
       <c r="Q130" t="s">
         <v>248</v>
@@ -11112,7 +11112,7 @@
         <v>44</v>
       </c>
       <c r="P131">
-        <v>0.53651000000000004</v>
+        <v>0.54362999999999995</v>
       </c>
       <c r="Q131" t="s">
         <v>23</v>
@@ -11186,7 +11186,7 @@
         <v>106</v>
       </c>
       <c r="P132">
-        <v>0.50670999999999999</v>
+        <v>0.51502000000000003</v>
       </c>
       <c r="Q132" t="s">
         <v>43</v>
@@ -11257,10 +11257,10 @@
         <v>0.13899</v>
       </c>
       <c r="O133" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="P133">
-        <v>0.47689999999999999</v>
+        <v>0.48641000000000001</v>
       </c>
       <c r="Q133" t="s">
         <v>229</v>
@@ -11334,7 +11334,7 @@
         <v>34</v>
       </c>
       <c r="P134">
-        <v>0.47689999999999999</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="Q134" t="s">
         <v>241</v>
@@ -11405,10 +11405,10 @@
         <v>0.10424</v>
       </c>
       <c r="O135" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="P135">
-        <v>0.44708999999999999</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="Q135" t="s">
         <v>148</v>
@@ -11482,7 +11482,7 @@
         <v>289</v>
       </c>
       <c r="P136">
-        <v>0.44708999999999999</v>
+        <v>0.42918000000000001</v>
       </c>
       <c r="Q136" t="s">
         <v>223</v>
@@ -11556,7 +11556,7 @@
         <v>299</v>
       </c>
       <c r="P137">
-        <v>0.41728999999999999</v>
+        <v>0.42918000000000001</v>
       </c>
       <c r="Q137" t="s">
         <v>292</v>
@@ -11627,10 +11627,10 @@
         <v>0.10424</v>
       </c>
       <c r="O138" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="P138">
-        <v>0.35768</v>
+        <v>0.42918000000000001</v>
       </c>
       <c r="Q138" t="s">
         <v>291</v>
@@ -11701,10 +11701,10 @@
         <v>0.10424</v>
       </c>
       <c r="O139" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="P139">
-        <v>0.35768</v>
+        <v>0.37196000000000001</v>
       </c>
       <c r="Q139" t="s">
         <v>301</v>
@@ -11775,10 +11775,10 @@
         <v>0.10424</v>
       </c>
       <c r="O140" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="P140">
-        <v>0.32786999999999999</v>
+        <v>0.34334999999999999</v>
       </c>
       <c r="Q140" t="s">
         <v>68</v>
@@ -11849,10 +11849,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O141" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="P141">
-        <v>0.32786999999999999</v>
+        <v>0.34334999999999999</v>
       </c>
       <c r="Q141" t="s">
         <v>269</v>
@@ -11923,10 +11923,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O142" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="P142">
-        <v>0.29805999999999999</v>
+        <v>0.31474000000000002</v>
       </c>
       <c r="Q142" t="s">
         <v>87</v>
@@ -11997,10 +11997,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O143" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="P143">
-        <v>0.29805999999999999</v>
+        <v>0.31474000000000002</v>
       </c>
       <c r="Q143" t="s">
         <v>139</v>
@@ -12071,10 +12071,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O144" t="s">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="P144">
-        <v>0.29805999999999999</v>
+        <v>0.28611999999999999</v>
       </c>
       <c r="Q144" t="s">
         <v>323</v>
@@ -12145,10 +12145,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O145" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="P145">
-        <v>0.26826</v>
+        <v>0.28611999999999999</v>
       </c>
       <c r="Q145" t="s">
         <v>95</v>
@@ -12219,10 +12219,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O146" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P146">
-        <v>0.23845</v>
+        <v>0.28611999999999999</v>
       </c>
       <c r="Q146" t="s">
         <v>72</v>
@@ -12293,10 +12293,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O147" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="P147">
-        <v>0.23845</v>
+        <v>0.25751000000000002</v>
       </c>
       <c r="Q147" t="s">
         <v>106</v>
@@ -12370,7 +12370,7 @@
         <v>296</v>
       </c>
       <c r="P148">
-        <v>0.23845</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="Q148" t="s">
         <v>334</v>
@@ -12441,10 +12441,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O149" t="s">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="P149">
-        <v>0.23845</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="Q149" t="s">
         <v>261</v>
@@ -12515,10 +12515,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O150" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P150">
-        <v>0.20863999999999999</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="Q150" t="s">
         <v>336</v>
@@ -12589,10 +12589,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O151" t="s">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="P151">
-        <v>0.20863999999999999</v>
+        <v>0.22889999999999999</v>
       </c>
       <c r="Q151" t="s">
         <v>102</v>
@@ -12663,10 +12663,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O152" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="P152">
-        <v>0.20863999999999999</v>
+        <v>0.20029</v>
       </c>
       <c r="Q152" t="s">
         <v>122</v>
@@ -12737,10 +12737,10 @@
         <v>6.9489999999999996E-2</v>
       </c>
       <c r="O153" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="P153">
-        <v>0.20863999999999999</v>
+        <v>0.20029</v>
       </c>
       <c r="Q153" t="s">
         <v>247</v>
@@ -12811,10 +12811,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O154" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="P154">
-        <v>0.17884</v>
+        <v>0.20029</v>
       </c>
       <c r="Q154" t="s">
         <v>51</v>
@@ -12888,7 +12888,7 @@
         <v>122</v>
       </c>
       <c r="P155">
-        <v>0.17884</v>
+        <v>0.17166999999999999</v>
       </c>
       <c r="Q155" t="s">
         <v>75</v>
@@ -12959,10 +12959,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O156" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P156">
-        <v>0.17884</v>
+        <v>0.17166999999999999</v>
       </c>
       <c r="Q156" t="s">
         <v>58</v>
@@ -13033,10 +13033,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O157" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="P157">
-        <v>0.14903</v>
+        <v>0.17166999999999999</v>
       </c>
       <c r="Q157" t="s">
         <v>327</v>
@@ -13107,10 +13107,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O158" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="P158">
-        <v>0.14903</v>
+        <v>0.17166999999999999</v>
       </c>
       <c r="Q158" t="s">
         <v>145</v>
@@ -13181,10 +13181,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O159" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="P159">
-        <v>0.14903</v>
+        <v>0.14305999999999999</v>
       </c>
       <c r="Q159" t="s">
         <v>299</v>
@@ -13249,10 +13249,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O160" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="P160">
-        <v>0.11923</v>
+        <v>0.14305999999999999</v>
       </c>
       <c r="Q160" t="s">
         <v>254</v>
@@ -13317,10 +13317,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O161" t="s">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="P161">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q161" t="s">
         <v>47</v>
@@ -13385,10 +13385,10 @@
         <v>3.4750000000000003E-2</v>
       </c>
       <c r="O162" t="s">
-        <v>258</v>
+        <v>2</v>
       </c>
       <c r="P162">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q162" t="s">
         <v>257</v>
@@ -13453,10 +13453,10 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="P163">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q163" t="s">
         <v>244</v>
@@ -13521,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P164">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q164" t="s">
         <v>302</v>
@@ -13589,10 +13589,10 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="P165">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q165" t="s">
         <v>100</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="P166">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q166" t="s">
         <v>296</v>
@@ -13725,10 +13725,10 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="P167">
-        <v>0.11923</v>
+        <v>0.11445</v>
       </c>
       <c r="Q167" t="s">
         <v>293</v>
@@ -13793,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="P168">
-        <v>8.9419999999999999E-2</v>
+        <v>0.11445</v>
       </c>
       <c r="Q168" t="s">
         <v>276</v>
@@ -13861,10 +13861,10 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P169">
-        <v>8.9419999999999999E-2</v>
+        <v>0.11445</v>
       </c>
       <c r="Q169" t="s">
         <v>39</v>
@@ -13929,10 +13929,10 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="P170">
-        <v>8.9419999999999999E-2</v>
+        <v>0.11445</v>
       </c>
       <c r="Q170" t="s">
         <v>266</v>
@@ -13997,10 +13997,10 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="P171">
-        <v>8.9419999999999999E-2</v>
+        <v>8.584E-2</v>
       </c>
       <c r="Q171" t="s">
         <v>96</v>
@@ -14065,10 +14065,10 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P172">
-        <v>8.9419999999999999E-2</v>
+        <v>8.584E-2</v>
       </c>
       <c r="Q172" t="s">
         <v>82</v>
@@ -14127,10 +14127,10 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="P173">
-        <v>5.9610000000000003E-2</v>
+        <v>8.584E-2</v>
       </c>
       <c r="Q173" t="s">
         <v>83</v>
@@ -14189,10 +14189,10 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="P174">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q174" t="s">
         <v>86</v>
@@ -14251,10 +14251,10 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="P175">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q175" t="s">
         <v>242</v>
@@ -14313,10 +14313,10 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="P176">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q176" t="s">
         <v>46</v>
@@ -14372,7 +14372,7 @@
         <v>205</v>
       </c>
       <c r="P177">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q177" t="s">
         <v>283</v>
@@ -14419,10 +14419,10 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="P178">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q178" t="s">
         <v>203</v>
@@ -14469,10 +14469,10 @@
         <v>0</v>
       </c>
       <c r="O179" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P179">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q179" t="s">
         <v>337</v>
@@ -14522,7 +14522,7 @@
         <v>61</v>
       </c>
       <c r="P180">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q180" t="s">
         <v>136</v>
@@ -14563,10 +14563,10 @@
         <v>0.17308000000000001</v>
       </c>
       <c r="O181" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="P181">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q181" t="s">
         <v>306</v>
@@ -14607,10 +14607,10 @@
         <v>0.17308000000000001</v>
       </c>
       <c r="O182" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P182">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q182" t="s">
         <v>117</v>
@@ -14651,10 +14651,10 @@
         <v>0.15384999999999999</v>
       </c>
       <c r="O183" t="s">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="P183">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q183" t="s">
         <v>62</v>
@@ -14695,10 +14695,10 @@
         <v>0.13461999999999999</v>
       </c>
       <c r="O184" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="P184">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q184" t="s">
         <v>45</v>
@@ -14733,10 +14733,10 @@
         <v>0.11538</v>
       </c>
       <c r="O185" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="P185">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q185" t="s">
         <v>262</v>
@@ -14771,10 +14771,10 @@
         <v>0.11538</v>
       </c>
       <c r="O186" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P186">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q186" t="s">
         <v>190</v>
@@ -14809,10 +14809,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O187" t="s">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="P187">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q187" t="s">
         <v>0</v>
@@ -14847,10 +14847,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O188" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="P188">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q188" t="s">
         <v>131</v>
@@ -14885,10 +14885,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O189" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="P189">
-        <v>5.9610000000000003E-2</v>
+        <v>5.722E-2</v>
       </c>
       <c r="Q189" t="s">
         <v>134</v>
@@ -14923,10 +14923,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O190" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P190">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q190" t="s">
         <v>295</v>
@@ -14961,10 +14961,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O191" t="s">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="P191">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q191" t="s">
         <v>322</v>
@@ -14999,10 +14999,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O192" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="P192">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q192" t="s">
         <v>204</v>
@@ -15037,10 +15037,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O193" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="P193">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q193" t="s">
         <v>285</v>
@@ -15075,10 +15075,10 @@
         <v>9.6149999999999999E-2</v>
       </c>
       <c r="O194" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="P194">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q194" t="s">
         <v>326</v>
@@ -15113,10 +15113,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O195" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="P195">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q195" t="s">
         <v>338</v>
@@ -15151,10 +15151,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O196" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P196">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q196" t="s">
         <v>253</v>
@@ -15189,10 +15189,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O197" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="P197">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q197" t="s">
         <v>315</v>
@@ -15227,10 +15227,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O198" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="P198">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q198" t="s">
         <v>329</v>
@@ -15265,10 +15265,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O199" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="P199">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q199" t="s">
         <v>108</v>
@@ -15303,10 +15303,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O200" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="P200">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q200" t="s">
         <v>333</v>
@@ -15341,10 +15341,10 @@
         <v>7.6920000000000002E-2</v>
       </c>
       <c r="O201" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="P201">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q201" t="s">
         <v>73</v>
@@ -15382,7 +15382,7 @@
         <v>45</v>
       </c>
       <c r="P202">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q202" t="s">
         <v>84</v>
@@ -15411,10 +15411,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O203" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="P203">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q203" t="s">
         <v>232</v>
@@ -15443,10 +15443,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O204" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="P204">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q204" t="s">
         <v>121</v>
@@ -15475,10 +15475,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O205" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="P205">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q205" t="s">
         <v>55</v>
@@ -15507,10 +15507,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O206" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="P206">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q206" t="s">
         <v>65</v>
@@ -15539,10 +15539,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O207" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P207">
-        <v>2.981E-2</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q207" t="s">
         <v>76</v>
@@ -15571,10 +15571,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O208" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="P208">
-        <v>0</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q208" t="s">
         <v>143</v>
@@ -15603,10 +15603,10 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O209" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>2.861E-2</v>
       </c>
       <c r="Q209" t="s">
         <v>271</v>
@@ -15635,7 +15635,7 @@
         <v>5.7689999999999998E-2</v>
       </c>
       <c r="O210" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -15667,7 +15667,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O211" t="s">
-        <v>51</v>
+        <v>306</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -15699,7 +15699,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O212" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -15731,7 +15731,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O213" t="s">
-        <v>335</v>
+        <v>121</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -15763,7 +15763,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O214" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O217" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -15891,7 +15891,7 @@
         <v>3.8460000000000001E-2</v>
       </c>
       <c r="O218" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -15923,7 +15923,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="O219" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -15955,7 +15955,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="O220" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -15986,6 +15986,12 @@
       <c r="J221">
         <v>1.9230000000000001E-2</v>
       </c>
+      <c r="O221" t="s">
+        <v>335</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
       <c r="Q221" t="s">
         <v>289</v>
       </c>
@@ -16011,6 +16017,12 @@
       </c>
       <c r="J222">
         <v>1.9230000000000001E-2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>271</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
       </c>
       <c r="Q222" t="s">
         <v>74</v>

--- a/eBirdDataProcessor/BucksFrequencyData.xlsx
+++ b/eBirdDataProcessor/BucksFrequencyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="361">
   <si>
     <t>Dark-eyed Junco</t>
   </si>
@@ -1440,7 +1440,7 @@
   <dimension ref="A1:X251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:P222"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
         <v>180</v>
       </c>
       <c r="R1">
-        <v>3256</v>
+        <v>3671</v>
       </c>
       <c r="S1" t="s">
         <v>181</v>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="R3">
-        <v>74.846440000000001</v>
+        <v>75.810410000000005</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1720,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="R4">
-        <v>65.294839999999994</v>
+        <v>63.906289999999998</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>62.192869999999999</v>
+        <v>62.244619999999998</v>
       </c>
       <c r="S5" t="s">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>104</v>
       </c>
       <c r="R6">
-        <v>57.923830000000002</v>
+        <v>60.147100000000002</v>
       </c>
       <c r="S6" t="s">
         <v>5</v>
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="R7">
-        <v>57.493859999999998</v>
+        <v>57.477530000000002</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
@@ -2016,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="R8">
-        <v>55.712530000000001</v>
+        <v>55.597929999999998</v>
       </c>
       <c r="S8" t="s">
         <v>18</v>
@@ -2087,10 +2087,10 @@
         <v>51.416310000000003</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>53.685499999999998</v>
+        <v>53.691090000000003</v>
       </c>
       <c r="S9" t="s">
         <v>6</v>
@@ -2161,10 +2161,10 @@
         <v>49.64235</v>
       </c>
       <c r="Q10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>53.37838</v>
+        <v>53.663849999999996</v>
       </c>
       <c r="S10" t="s">
         <v>10</v>
@@ -2238,7 +2238,7 @@
         <v>11</v>
       </c>
       <c r="R11">
-        <v>51.873460000000001</v>
+        <v>53.200760000000002</v>
       </c>
       <c r="S11" t="s">
         <v>14</v>
@@ -2312,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="R12">
-        <v>50.859949999999998</v>
+        <v>52.683190000000003</v>
       </c>
       <c r="S12" t="s">
         <v>11</v>
@@ -2383,10 +2383,10 @@
         <v>46.523609999999998</v>
       </c>
       <c r="Q13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13">
-        <v>49.078620000000001</v>
+        <v>50.367750000000001</v>
       </c>
       <c r="S13" t="s">
         <v>8</v>
@@ -2457,10 +2457,10 @@
         <v>45.264659999999999</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R14">
-        <v>48.955770000000001</v>
+        <v>50.013620000000003</v>
       </c>
       <c r="S14" t="s">
         <v>13</v>
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="R15">
-        <v>44.717449999999999</v>
+        <v>45.301009999999998</v>
       </c>
       <c r="S15" t="s">
         <v>15</v>
@@ -2605,10 +2605,10 @@
         <v>39.370530000000002</v>
       </c>
       <c r="Q16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>42.598280000000003</v>
+        <v>43.312449999999998</v>
       </c>
       <c r="S16" t="s">
         <v>9</v>
@@ -2679,10 +2679,10 @@
         <v>37.62518</v>
       </c>
       <c r="Q17" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>42.506140000000002</v>
+        <v>41.623539999999998</v>
       </c>
       <c r="S17" t="s">
         <v>12</v>
@@ -2756,7 +2756,7 @@
         <v>29</v>
       </c>
       <c r="R18">
-        <v>36.916460000000001</v>
+        <v>37.946060000000003</v>
       </c>
       <c r="S18" t="s">
         <v>2</v>
@@ -2830,7 +2830,7 @@
         <v>26</v>
       </c>
       <c r="R19">
-        <v>35.872230000000002</v>
+        <v>37.918819999999997</v>
       </c>
       <c r="S19" t="s">
         <v>20</v>
@@ -2904,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="R20">
-        <v>33.814500000000002</v>
+        <v>33.642060000000001</v>
       </c>
       <c r="S20" t="s">
         <v>29</v>
@@ -2978,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="R21">
-        <v>31.265360000000001</v>
+        <v>31.626259999999998</v>
       </c>
       <c r="S21" t="s">
         <v>21</v>
@@ -3052,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="R22">
-        <v>29.115480000000002</v>
+        <v>30.972490000000001</v>
       </c>
       <c r="S22" t="s">
         <v>26</v>
@@ -3126,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="R23">
-        <v>28.9312</v>
+        <v>28.929449999999999</v>
       </c>
       <c r="S23" t="s">
         <v>16</v>
@@ -3200,7 +3200,7 @@
         <v>98</v>
       </c>
       <c r="R24">
-        <v>27.426290000000002</v>
+        <v>28.357399999999998</v>
       </c>
       <c r="S24" t="s">
         <v>79</v>
@@ -3271,10 +3271,10 @@
         <v>26.323319999999999</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="R25">
-        <v>24.232189999999999</v>
+        <v>25.306460000000001</v>
       </c>
       <c r="S25" t="s">
         <v>40</v>
@@ -3345,10 +3345,10 @@
         <v>24.864090000000001</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="R26">
-        <v>24.017199999999999</v>
+        <v>24.707159999999998</v>
       </c>
       <c r="S26" t="s">
         <v>98</v>
@@ -3419,10 +3419,10 @@
         <v>24.320460000000001</v>
       </c>
       <c r="Q27" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="R27">
-        <v>23.280100000000001</v>
+        <v>24.407520000000002</v>
       </c>
       <c r="S27" t="s">
         <v>17</v>
@@ -3493,10 +3493,10 @@
         <v>22.060089999999999</v>
       </c>
       <c r="Q28" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="R28">
-        <v>22.88083</v>
+        <v>23.535820000000001</v>
       </c>
       <c r="S28" t="s">
         <v>104</v>
@@ -3570,7 +3570,7 @@
         <v>126</v>
       </c>
       <c r="R29">
-        <v>21.40663</v>
+        <v>21.87415</v>
       </c>
       <c r="S29" t="s">
         <v>19</v>
@@ -3644,7 +3644,7 @@
         <v>237</v>
       </c>
       <c r="R30">
-        <v>20.515969999999999</v>
+        <v>21.302099999999999</v>
       </c>
       <c r="S30" t="s">
         <v>36</v>
@@ -3715,10 +3715,10 @@
         <v>20.80114</v>
       </c>
       <c r="Q31" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="R31">
-        <v>19.348890000000001</v>
+        <v>19.39526</v>
       </c>
       <c r="S31" t="s">
         <v>25</v>
@@ -3789,10 +3789,10 @@
         <v>19.17024</v>
       </c>
       <c r="Q32" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="R32">
-        <v>18.765360000000001</v>
+        <v>19.041129999999999</v>
       </c>
       <c r="S32" t="s">
         <v>22</v>
@@ -3863,10 +3863,10 @@
         <v>19.055789999999998</v>
       </c>
       <c r="Q33" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="R33">
-        <v>18.488939999999999</v>
+        <v>18.659770000000002</v>
       </c>
       <c r="S33" t="s">
         <v>61</v>
@@ -3937,10 +3937,10 @@
         <v>17.653790000000001</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="R34">
-        <v>17.475429999999999</v>
+        <v>18.30564</v>
       </c>
       <c r="S34" t="s">
         <v>57</v>
@@ -4011,10 +4011,10 @@
         <v>17.453499999999998</v>
       </c>
       <c r="Q35" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="R35">
-        <v>16.76904</v>
+        <v>17.570139999999999</v>
       </c>
       <c r="S35" t="s">
         <v>126</v>
@@ -4085,10 +4085,10 @@
         <v>17.33906</v>
       </c>
       <c r="Q36" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="R36">
-        <v>16.738330000000001</v>
+        <v>17.297740000000001</v>
       </c>
       <c r="S36" t="s">
         <v>30</v>
@@ -4159,10 +4159,10 @@
         <v>16.76681</v>
       </c>
       <c r="Q37" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="R37">
-        <v>16.615480000000002</v>
+        <v>17.107060000000001</v>
       </c>
       <c r="S37" t="s">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>67</v>
       </c>
       <c r="R38">
-        <v>16.369779999999999</v>
+        <v>17.079809999999998</v>
       </c>
       <c r="S38" t="s">
         <v>67</v>
@@ -4307,10 +4307,10 @@
         <v>16.309010000000001</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="R39">
-        <v>16.369779999999999</v>
+        <v>16.916370000000001</v>
       </c>
       <c r="S39" t="s">
         <v>115</v>
@@ -4381,10 +4381,10 @@
         <v>15.73677</v>
       </c>
       <c r="Q40" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="R40">
-        <v>16.031939999999999</v>
+        <v>16.04467</v>
       </c>
       <c r="S40" t="s">
         <v>33</v>
@@ -4455,10 +4455,10 @@
         <v>14.763949999999999</v>
       </c>
       <c r="Q41" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="R41">
-        <v>15.81695</v>
+        <v>15.472619999999999</v>
       </c>
       <c r="S41" t="s">
         <v>48</v>
@@ -4529,10 +4529,10 @@
         <v>14.735340000000001</v>
       </c>
       <c r="Q42" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="R42">
-        <v>15.786239999999999</v>
+        <v>15.44538</v>
       </c>
       <c r="S42" t="s">
         <v>94</v>
@@ -4606,7 +4606,7 @@
         <v>17</v>
       </c>
       <c r="R43">
-        <v>14.98771</v>
+        <v>14.79161</v>
       </c>
       <c r="S43" t="s">
         <v>54</v>
@@ -4677,10 +4677,10 @@
         <v>14.363379999999999</v>
       </c>
       <c r="Q44" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="R44">
-        <v>14.37346</v>
+        <v>14.16508</v>
       </c>
       <c r="S44" t="s">
         <v>85</v>
@@ -4754,7 +4754,7 @@
         <v>221</v>
       </c>
       <c r="R45">
-        <v>14.06634</v>
+        <v>14.137840000000001</v>
       </c>
       <c r="S45" t="s">
         <v>41</v>
@@ -4825,10 +4825,10 @@
         <v>13.04721</v>
       </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="R46">
-        <v>13.882059999999999</v>
+        <v>13.783709999999999</v>
       </c>
       <c r="S46" t="s">
         <v>144</v>
@@ -4899,10 +4899,10 @@
         <v>12.7897</v>
       </c>
       <c r="Q47" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="R47">
-        <v>13.78993</v>
+        <v>13.75647</v>
       </c>
       <c r="S47" t="s">
         <v>35</v>
@@ -4973,10 +4973,10 @@
         <v>12.36051</v>
       </c>
       <c r="Q48" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="R48">
-        <v>13.66708</v>
+        <v>13.64751</v>
       </c>
       <c r="S48" t="s">
         <v>81</v>
@@ -5047,10 +5047,10 @@
         <v>12.188840000000001</v>
       </c>
       <c r="Q49" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="R49">
-        <v>13.57494</v>
+        <v>13.402340000000001</v>
       </c>
       <c r="S49" t="s">
         <v>51</v>
@@ -5124,7 +5124,7 @@
         <v>48</v>
       </c>
       <c r="R50">
-        <v>11.916460000000001</v>
+        <v>13.347860000000001</v>
       </c>
       <c r="S50" t="s">
         <v>44</v>
@@ -5198,7 +5198,7 @@
         <v>225</v>
       </c>
       <c r="R51">
-        <v>11.70147</v>
+        <v>12.748570000000001</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
@@ -5269,10 +5269,10 @@
         <v>11.73104</v>
       </c>
       <c r="Q52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R52">
-        <v>11.394349999999999</v>
+        <v>11.52275</v>
       </c>
       <c r="S52" t="s">
         <v>68</v>
@@ -5343,10 +5343,10 @@
         <v>11.645210000000001</v>
       </c>
       <c r="Q53" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R53">
-        <v>10.59582</v>
+        <v>11.359299999999999</v>
       </c>
       <c r="S53" t="s">
         <v>66</v>
@@ -5417,10 +5417,10 @@
         <v>11.416309999999999</v>
       </c>
       <c r="Q54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R54">
-        <v>10.5344</v>
+        <v>11.03242</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -5491,10 +5491,10 @@
         <v>11.30186</v>
       </c>
       <c r="Q55" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="R55">
-        <v>10.47297</v>
+        <v>10.18796</v>
       </c>
       <c r="S55" t="s">
         <v>194</v>
@@ -5565,10 +5565,10 @@
         <v>10.329040000000001</v>
       </c>
       <c r="Q56" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="R56">
-        <v>9.2444699999999997</v>
+        <v>9.5069499999999998</v>
       </c>
       <c r="S56" t="s">
         <v>37</v>
@@ -5639,10 +5639,10 @@
         <v>9.7568000000000001</v>
       </c>
       <c r="Q57" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="R57">
-        <v>8.9373500000000003</v>
+        <v>9.2345400000000009</v>
       </c>
       <c r="S57" t="s">
         <v>138</v>
@@ -5713,10 +5713,10 @@
         <v>9.2703900000000008</v>
       </c>
       <c r="Q58" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="R58">
-        <v>8.9373500000000003</v>
+        <v>8.8531700000000004</v>
       </c>
       <c r="S58" t="s">
         <v>43</v>
@@ -5787,10 +5787,10 @@
         <v>8.9842600000000008</v>
       </c>
       <c r="Q59" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="R59">
-        <v>8.7530699999999992</v>
+        <v>8.7442100000000007</v>
       </c>
       <c r="S59" t="s">
         <v>31</v>
@@ -5861,10 +5861,10 @@
         <v>8.6981400000000004</v>
       </c>
       <c r="Q60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R60">
-        <v>8.7223600000000001</v>
+        <v>8.4718099999999996</v>
       </c>
       <c r="S60" t="s">
         <v>71</v>
@@ -5935,10 +5935,10 @@
         <v>8.5550800000000002</v>
       </c>
       <c r="Q61" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="R61">
-        <v>8.6609300000000005</v>
+        <v>8.3900799999999993</v>
       </c>
       <c r="S61" t="s">
         <v>193</v>
@@ -6009,10 +6009,10 @@
         <v>8.3261800000000008</v>
       </c>
       <c r="Q62" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="R62">
-        <v>8.0466800000000003</v>
+        <v>8.0359599999999993</v>
       </c>
       <c r="S62" t="s">
         <v>141</v>
@@ -6083,10 +6083,10 @@
         <v>8.1545100000000001</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="R63">
-        <v>7.77027</v>
+        <v>7.9542400000000004</v>
       </c>
       <c r="S63" t="s">
         <v>60</v>
@@ -6157,10 +6157,10 @@
         <v>7.8970000000000002</v>
       </c>
       <c r="Q64" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="R64">
-        <v>7.2481600000000004</v>
+        <v>7.35494</v>
       </c>
       <c r="S64" t="s">
         <v>89</v>
@@ -6231,10 +6231,10 @@
         <v>7.7539300000000004</v>
       </c>
       <c r="Q65" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="R65">
-        <v>7.1867299999999998</v>
+        <v>7.3004600000000002</v>
       </c>
       <c r="S65" t="s">
         <v>38</v>
@@ -6305,10 +6305,10 @@
         <v>7.3819699999999999</v>
       </c>
       <c r="Q66" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="R66">
-        <v>6.9717399999999996</v>
+        <v>7.0552999999999999</v>
       </c>
       <c r="S66" t="s">
         <v>34</v>
@@ -6379,10 +6379,10 @@
         <v>6.8669500000000001</v>
       </c>
       <c r="Q67" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="R67">
-        <v>6.9103199999999996</v>
+        <v>6.7556500000000002</v>
       </c>
       <c r="S67" t="s">
         <v>58</v>
@@ -6456,7 +6456,7 @@
         <v>164</v>
       </c>
       <c r="R68">
-        <v>6.8181799999999999</v>
+        <v>6.7011700000000003</v>
       </c>
       <c r="S68" t="s">
         <v>82</v>
@@ -6527,10 +6527,10 @@
         <v>6.7238899999999999</v>
       </c>
       <c r="Q69" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="R69">
-        <v>6.5724799999999997</v>
+        <v>6.7011700000000003</v>
       </c>
       <c r="S69" t="s">
         <v>224</v>
@@ -6601,10 +6601,10 @@
         <v>6.3233199999999998</v>
       </c>
       <c r="Q70" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="R70">
-        <v>6.48034</v>
+        <v>6.6739300000000004</v>
       </c>
       <c r="S70" t="s">
         <v>213</v>
@@ -6675,10 +6675,10 @@
         <v>6.1802599999999996</v>
       </c>
       <c r="Q71" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="R71">
-        <v>6.41892</v>
+        <v>6.5104899999999999</v>
       </c>
       <c r="S71" t="s">
         <v>65</v>
@@ -6749,10 +6749,10 @@
         <v>5.9799699999999998</v>
       </c>
       <c r="Q72" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="R72">
-        <v>6.3574900000000003</v>
+        <v>6.2925599999999999</v>
       </c>
       <c r="S72" t="s">
         <v>56</v>
@@ -6823,10 +6823,10 @@
         <v>5.52217</v>
       </c>
       <c r="Q73" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="R73">
-        <v>5.9889400000000004</v>
+        <v>6.0746399999999996</v>
       </c>
       <c r="S73" t="s">
         <v>24</v>
@@ -6897,10 +6897,10 @@
         <v>5.46495</v>
       </c>
       <c r="Q74" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="R74">
-        <v>5.9582300000000004</v>
+        <v>5.6387900000000002</v>
       </c>
       <c r="S74" t="s">
         <v>215</v>
@@ -6971,10 +6971,10 @@
         <v>4.7782499999999999</v>
       </c>
       <c r="Q75" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="R75">
-        <v>5.8660899999999998</v>
+        <v>5.6115500000000003</v>
       </c>
       <c r="S75" t="s">
         <v>73</v>
@@ -7048,7 +7048,7 @@
         <v>246</v>
       </c>
       <c r="R76">
-        <v>5.3746900000000002</v>
+        <v>5.3663800000000004</v>
       </c>
       <c r="S76" t="s">
         <v>156</v>
@@ -7119,10 +7119,10 @@
         <v>4.2918500000000002</v>
       </c>
       <c r="Q77" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="R77">
-        <v>5.3746900000000002</v>
+        <v>5.2846599999999997</v>
       </c>
       <c r="S77" t="s">
         <v>75</v>
@@ -7193,10 +7193,10 @@
         <v>4.0915600000000003</v>
       </c>
       <c r="Q78" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="R78">
-        <v>5.1904199999999996</v>
+        <v>5.2846599999999997</v>
       </c>
       <c r="S78" t="s">
         <v>63</v>
@@ -7267,10 +7267,10 @@
         <v>3.9771100000000001</v>
       </c>
       <c r="Q79" t="s">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="R79">
-        <v>5.0982799999999999</v>
+        <v>5.2301799999999998</v>
       </c>
       <c r="S79" t="s">
         <v>230</v>
@@ -7341,10 +7341,10 @@
         <v>3.89127</v>
       </c>
       <c r="Q80" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="R80">
-        <v>4.9139999999999997</v>
+        <v>5.1212200000000001</v>
       </c>
       <c r="S80" t="s">
         <v>23</v>
@@ -7415,10 +7415,10 @@
         <v>3.6337600000000001</v>
       </c>
       <c r="Q81" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="R81">
-        <v>4.72973</v>
+        <v>5.0939800000000002</v>
       </c>
       <c r="S81" t="s">
         <v>49</v>
@@ -7492,7 +7492,7 @@
         <v>63</v>
       </c>
       <c r="R82">
-        <v>4.6683000000000003</v>
+        <v>4.7126099999999997</v>
       </c>
       <c r="S82" t="s">
         <v>47</v>
@@ -7563,10 +7563,10 @@
         <v>3.54793</v>
       </c>
       <c r="Q83" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="R83">
-        <v>4.5454499999999998</v>
+        <v>4.7126099999999997</v>
       </c>
       <c r="S83" t="s">
         <v>45</v>
@@ -7637,10 +7637,10 @@
         <v>3.0042900000000001</v>
       </c>
       <c r="Q84" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="R84">
-        <v>4.2076200000000004</v>
+        <v>4.0860799999999999</v>
       </c>
       <c r="S84" t="s">
         <v>90</v>
@@ -7711,10 +7711,10 @@
         <v>2.8612299999999999</v>
       </c>
       <c r="Q85" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="R85">
-        <v>3.86978</v>
+        <v>4.0316000000000001</v>
       </c>
       <c r="S85" t="s">
         <v>42</v>
@@ -7785,10 +7785,10 @@
         <v>2.7467800000000002</v>
       </c>
       <c r="Q86" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="R86">
-        <v>3.7469299999999999</v>
+        <v>3.8409200000000001</v>
       </c>
       <c r="S86" t="s">
         <v>212</v>
@@ -7859,10 +7859,10 @@
         <v>2.7467800000000002</v>
       </c>
       <c r="Q87" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="R87">
-        <v>3.5626500000000001</v>
+        <v>3.7319499999999999</v>
       </c>
       <c r="S87" t="s">
         <v>238</v>
@@ -7933,10 +7933,10 @@
         <v>2.7181700000000002</v>
       </c>
       <c r="Q88" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="R88">
-        <v>3.47052</v>
+        <v>3.5412699999999999</v>
       </c>
       <c r="S88" t="s">
         <v>27</v>
@@ -8007,10 +8007,10 @@
         <v>2.6895600000000002</v>
       </c>
       <c r="Q89" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="R89">
-        <v>3.40909</v>
+        <v>3.51403</v>
       </c>
       <c r="S89" t="s">
         <v>46</v>
@@ -8081,10 +8081,10 @@
         <v>2.5464899999999999</v>
       </c>
       <c r="Q90" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="R90">
-        <v>3.3476699999999999</v>
+        <v>3.51403</v>
       </c>
       <c r="S90" t="s">
         <v>272</v>
@@ -8155,10 +8155,10 @@
         <v>2.5178799999999999</v>
       </c>
       <c r="Q91" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="R91">
-        <v>3.3169499999999998</v>
+        <v>3.4595500000000001</v>
       </c>
       <c r="S91" t="s">
         <v>226</v>
@@ -8229,10 +8229,10 @@
         <v>2.26037</v>
       </c>
       <c r="Q92" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="R92">
-        <v>3.2862399999999998</v>
+        <v>3.2143799999999998</v>
       </c>
       <c r="S92" t="s">
         <v>201</v>
@@ -8303,10 +8303,10 @@
         <v>2.1173099999999998</v>
       </c>
       <c r="Q93" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="R93">
-        <v>3.1941000000000002</v>
+        <v>3.1598999999999999</v>
       </c>
       <c r="S93" t="s">
         <v>88</v>
@@ -8377,10 +8377,10 @@
         <v>2.0886999999999998</v>
       </c>
       <c r="Q94" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="R94">
-        <v>3.04054</v>
+        <v>2.9964599999999999</v>
       </c>
       <c r="S94" t="s">
         <v>100</v>
@@ -8451,10 +8451,10 @@
         <v>2.0600900000000002</v>
       </c>
       <c r="Q95" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="R95">
-        <v>2.8869799999999999</v>
+        <v>2.96922</v>
       </c>
       <c r="S95" t="s">
         <v>246</v>
@@ -8525,10 +8525,10 @@
         <v>2.0600900000000002</v>
       </c>
       <c r="Q96" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="R96">
-        <v>2.8562699999999999</v>
+        <v>2.96922</v>
       </c>
       <c r="S96" t="s">
         <v>251</v>
@@ -8599,10 +8599,10 @@
         <v>1.9170199999999999</v>
       </c>
       <c r="Q97" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="R97">
-        <v>2.7641300000000002</v>
+        <v>2.94198</v>
       </c>
       <c r="S97" t="s">
         <v>117</v>
@@ -8673,10 +8673,10 @@
         <v>1.9170199999999999</v>
       </c>
       <c r="Q98" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="R98">
-        <v>2.7334200000000002</v>
+        <v>2.8330199999999999</v>
       </c>
       <c r="S98" t="s">
         <v>83</v>
@@ -8747,10 +8747,10 @@
         <v>1.7167399999999999</v>
       </c>
       <c r="Q99" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="R99">
-        <v>2.7027000000000001</v>
+        <v>2.7785299999999999</v>
       </c>
       <c r="S99" t="s">
         <v>62</v>
@@ -8821,10 +8821,10 @@
         <v>1.7167399999999999</v>
       </c>
       <c r="Q100" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="R100">
-        <v>2.6105700000000001</v>
+        <v>2.75129</v>
       </c>
       <c r="S100" t="s">
         <v>216</v>
@@ -8898,7 +8898,7 @@
         <v>81</v>
       </c>
       <c r="R101">
-        <v>2.57985</v>
+        <v>2.6968100000000002</v>
       </c>
       <c r="S101" t="s">
         <v>237</v>
@@ -8969,10 +8969,10 @@
         <v>1.6309</v>
       </c>
       <c r="Q102" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="R102">
-        <v>2.54914</v>
+        <v>2.6150899999999999</v>
       </c>
       <c r="S102" t="s">
         <v>261</v>
@@ -9046,7 +9046,7 @@
         <v>272</v>
       </c>
       <c r="R103">
-        <v>2.5184299999999999</v>
+        <v>2.5606100000000001</v>
       </c>
       <c r="S103" t="s">
         <v>55</v>
@@ -9117,10 +9117,10 @@
         <v>1.57368</v>
       </c>
       <c r="Q104" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="R104">
-        <v>2.4262899999999998</v>
+        <v>2.4516499999999999</v>
       </c>
       <c r="S104" t="s">
         <v>77</v>
@@ -9191,10 +9191,10 @@
         <v>1.5164500000000001</v>
       </c>
       <c r="Q105" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="R105">
-        <v>2.4262899999999998</v>
+        <v>2.42441</v>
       </c>
       <c r="S105" t="s">
         <v>225</v>
@@ -9265,10 +9265,10 @@
         <v>1.4878400000000001</v>
       </c>
       <c r="Q106" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="R106">
-        <v>2.3034400000000002</v>
+        <v>2.3426900000000002</v>
       </c>
       <c r="S106" t="s">
         <v>199</v>
@@ -9342,7 +9342,7 @@
         <v>252</v>
       </c>
       <c r="R107">
-        <v>2.2420100000000001</v>
+        <v>2.3426900000000002</v>
       </c>
       <c r="S107" t="s">
         <v>96</v>
@@ -9413,10 +9413,10 @@
         <v>1.3447800000000001</v>
       </c>
       <c r="Q108" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="R108">
-        <v>2.18059</v>
+        <v>2.2609599999999999</v>
       </c>
       <c r="S108" t="s">
         <v>70</v>
@@ -9490,7 +9490,7 @@
         <v>88</v>
       </c>
       <c r="R109">
-        <v>2.0884499999999999</v>
+        <v>2.20648</v>
       </c>
       <c r="S109" t="s">
         <v>95</v>
@@ -9561,10 +9561,10 @@
         <v>1.2017199999999999</v>
       </c>
       <c r="Q110" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="R110">
-        <v>2.0884499999999999</v>
+        <v>2.1792400000000001</v>
       </c>
       <c r="S110" t="s">
         <v>221</v>
@@ -9635,10 +9635,10 @@
         <v>1.1731</v>
       </c>
       <c r="Q111" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="R111">
-        <v>2.0270299999999999</v>
+        <v>2.1792400000000001</v>
       </c>
       <c r="S111" t="s">
         <v>53</v>
@@ -9709,10 +9709,10 @@
         <v>1.1731</v>
       </c>
       <c r="Q112" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="R112">
-        <v>2.0270299999999999</v>
+        <v>2.04304</v>
       </c>
       <c r="S112" t="s">
         <v>101</v>
@@ -9783,10 +9783,10 @@
         <v>1.1731</v>
       </c>
       <c r="Q113" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="R113">
-        <v>1.9656</v>
+        <v>1.96132</v>
       </c>
       <c r="S113" t="s">
         <v>245</v>
@@ -9857,10 +9857,10 @@
         <v>1.14449</v>
       </c>
       <c r="Q114" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="R114">
-        <v>1.9656</v>
+        <v>1.85236</v>
       </c>
       <c r="S114" t="s">
         <v>122</v>
@@ -9931,10 +9931,10 @@
         <v>1.11588</v>
       </c>
       <c r="Q115" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="R115">
-        <v>1.90418</v>
+        <v>1.8251200000000001</v>
       </c>
       <c r="S115" t="s">
         <v>195</v>
@@ -10005,10 +10005,10 @@
         <v>1.11588</v>
       </c>
       <c r="Q116" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="R116">
-        <v>1.90418</v>
+        <v>1.74339</v>
       </c>
       <c r="S116" t="s">
         <v>220</v>
@@ -10079,10 +10079,10 @@
         <v>1.08727</v>
       </c>
       <c r="Q117" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="R117">
-        <v>1.8734599999999999</v>
+        <v>1.74339</v>
       </c>
       <c r="S117" t="s">
         <v>236</v>
@@ -10153,10 +10153,10 @@
         <v>1.0586599999999999</v>
       </c>
       <c r="Q118" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="R118">
-        <v>1.7813300000000001</v>
+        <v>1.74339</v>
       </c>
       <c r="S118" t="s">
         <v>196</v>
@@ -10227,10 +10227,10 @@
         <v>1.0586599999999999</v>
       </c>
       <c r="Q119" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="R119">
-        <v>1.7199</v>
+        <v>1.7161500000000001</v>
       </c>
       <c r="S119" t="s">
         <v>154</v>
@@ -10301,10 +10301,10 @@
         <v>1.0300400000000001</v>
       </c>
       <c r="Q120" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="R120">
-        <v>1.68919</v>
+        <v>1.7161500000000001</v>
       </c>
       <c r="S120" t="s">
         <v>113</v>
@@ -10375,10 +10375,10 @@
         <v>0.97282000000000002</v>
       </c>
       <c r="Q121" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="R121">
-        <v>1.68919</v>
+        <v>1.6889099999999999</v>
       </c>
       <c r="S121" t="s">
         <v>110</v>
@@ -10449,10 +10449,10 @@
         <v>0.91559000000000001</v>
       </c>
       <c r="Q122" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="R122">
-        <v>1.68919</v>
+        <v>1.66167</v>
       </c>
       <c r="S122" t="s">
         <v>139</v>
@@ -10523,10 +10523,10 @@
         <v>0.85836999999999997</v>
       </c>
       <c r="Q123" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="R123">
-        <v>1.68919</v>
+        <v>1.66167</v>
       </c>
       <c r="S123" t="s">
         <v>99</v>
@@ -10597,10 +10597,10 @@
         <v>0.85836999999999997</v>
       </c>
       <c r="Q124" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="R124">
-        <v>1.65848</v>
+        <v>1.63443</v>
       </c>
       <c r="S124" t="s">
         <v>69</v>
@@ -10671,10 +10671,10 @@
         <v>0.82976000000000005</v>
       </c>
       <c r="Q125" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="R125">
-        <v>1.6277600000000001</v>
+        <v>1.63443</v>
       </c>
       <c r="S125" t="s">
         <v>108</v>
@@ -10745,10 +10745,10 @@
         <v>0.80113999999999996</v>
       </c>
       <c r="Q126" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="R126">
-        <v>1.5663400000000001</v>
+        <v>1.6071899999999999</v>
       </c>
       <c r="S126" t="s">
         <v>339</v>
@@ -10819,10 +10819,10 @@
         <v>0.71531</v>
       </c>
       <c r="Q127" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="R127">
-        <v>1.50491</v>
+        <v>1.6071899999999999</v>
       </c>
       <c r="S127" t="s">
         <v>109</v>
@@ -10893,10 +10893,10 @@
         <v>0.68669999999999998</v>
       </c>
       <c r="Q128" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="R128">
-        <v>1.4742</v>
+        <v>1.57995</v>
       </c>
       <c r="S128" t="s">
         <v>249</v>
@@ -10967,10 +10967,10 @@
         <v>0.57225000000000004</v>
       </c>
       <c r="Q129" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="R129">
-        <v>1.4742</v>
+        <v>1.47099</v>
       </c>
       <c r="S129" t="s">
         <v>116</v>
@@ -11041,10 +11041,10 @@
         <v>0.57225000000000004</v>
       </c>
       <c r="Q130" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="R130">
-        <v>1.3820600000000001</v>
+        <v>1.4165099999999999</v>
       </c>
       <c r="S130" t="s">
         <v>300</v>
@@ -11118,7 +11118,7 @@
         <v>23</v>
       </c>
       <c r="R131">
-        <v>1.28993</v>
+        <v>1.38927</v>
       </c>
       <c r="S131" t="s">
         <v>149</v>
@@ -11189,10 +11189,10 @@
         <v>0.51502000000000003</v>
       </c>
       <c r="Q132" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="R132">
-        <v>1.2592099999999999</v>
+        <v>1.3620300000000001</v>
       </c>
       <c r="S132" t="s">
         <v>78</v>
@@ -11263,10 +11263,10 @@
         <v>0.48641000000000001</v>
       </c>
       <c r="Q133" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="R133">
-        <v>1.2284999999999999</v>
+        <v>1.3620300000000001</v>
       </c>
       <c r="S133" t="s">
         <v>164</v>
@@ -11337,10 +11337,10 @@
         <v>0.45779999999999998</v>
       </c>
       <c r="Q134" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="R134">
-        <v>1.1977899999999999</v>
+        <v>1.2530600000000001</v>
       </c>
       <c r="S134" t="s">
         <v>72</v>
@@ -11411,10 +11411,10 @@
         <v>0.45779999999999998</v>
       </c>
       <c r="Q135" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="R135">
-        <v>1.1670799999999999</v>
+        <v>1.2258199999999999</v>
       </c>
       <c r="S135" t="s">
         <v>163</v>
@@ -11488,7 +11488,7 @@
         <v>223</v>
       </c>
       <c r="R136">
-        <v>1.1670799999999999</v>
+        <v>1.1440999999999999</v>
       </c>
       <c r="S136" t="s">
         <v>84</v>
@@ -11559,10 +11559,10 @@
         <v>0.42918000000000001</v>
       </c>
       <c r="Q137" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="R137">
-        <v>1.13636</v>
+        <v>1.1440999999999999</v>
       </c>
       <c r="S137" t="s">
         <v>86</v>
@@ -11636,7 +11636,7 @@
         <v>291</v>
       </c>
       <c r="R138">
-        <v>1.07494</v>
+        <v>1.0623800000000001</v>
       </c>
       <c r="S138" t="s">
         <v>147</v>
@@ -11710,7 +11710,7 @@
         <v>301</v>
       </c>
       <c r="R139">
-        <v>1.0135099999999999</v>
+        <v>1.0079</v>
       </c>
       <c r="S139" t="s">
         <v>206</v>
@@ -11781,10 +11781,10 @@
         <v>0.34334999999999999</v>
       </c>
       <c r="Q140" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="R140">
-        <v>0.92137999999999998</v>
+        <v>0.87170000000000003</v>
       </c>
       <c r="S140" t="s">
         <v>275</v>
@@ -11855,10 +11855,10 @@
         <v>0.34334999999999999</v>
       </c>
       <c r="Q141" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="R141">
-        <v>0.89066000000000001</v>
+        <v>0.81721999999999995</v>
       </c>
       <c r="S141" t="s">
         <v>87</v>
@@ -11929,10 +11929,10 @@
         <v>0.31474000000000002</v>
       </c>
       <c r="Q142" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="R142">
-        <v>0.76780999999999999</v>
+        <v>0.81721999999999995</v>
       </c>
       <c r="S142" t="s">
         <v>39</v>
@@ -12003,10 +12003,10 @@
         <v>0.31474000000000002</v>
       </c>
       <c r="Q143" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="R143">
-        <v>0.73709999999999998</v>
+        <v>0.78998000000000002</v>
       </c>
       <c r="S143" t="s">
         <v>227</v>
@@ -12077,10 +12077,10 @@
         <v>0.28611999999999999</v>
       </c>
       <c r="Q144" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="R144">
-        <v>0.73709999999999998</v>
+        <v>0.78998000000000002</v>
       </c>
       <c r="S144" t="s">
         <v>106</v>
@@ -12151,10 +12151,10 @@
         <v>0.28611999999999999</v>
       </c>
       <c r="Q145" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="R145">
-        <v>0.73709999999999998</v>
+        <v>0.76273000000000002</v>
       </c>
       <c r="S145" t="s">
         <v>346</v>
@@ -12225,10 +12225,10 @@
         <v>0.28611999999999999</v>
       </c>
       <c r="Q146" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="R146">
-        <v>0.70638999999999996</v>
+        <v>0.70825000000000005</v>
       </c>
       <c r="S146" t="s">
         <v>148</v>
@@ -12299,10 +12299,10 @@
         <v>0.25751000000000002</v>
       </c>
       <c r="Q147" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="R147">
-        <v>0.67567999999999995</v>
+        <v>0.65376999999999996</v>
       </c>
       <c r="S147" t="s">
         <v>133</v>
@@ -12373,10 +12373,10 @@
         <v>0.22889999999999999</v>
       </c>
       <c r="Q148" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="R148">
-        <v>0.61424999999999996</v>
+        <v>0.65376999999999996</v>
       </c>
       <c r="S148" t="s">
         <v>270</v>
@@ -12447,10 +12447,10 @@
         <v>0.22889999999999999</v>
       </c>
       <c r="Q149" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="R149">
-        <v>0.61424999999999996</v>
+        <v>0.65376999999999996</v>
       </c>
       <c r="S149" t="s">
         <v>323</v>
@@ -12521,10 +12521,10 @@
         <v>0.22889999999999999</v>
       </c>
       <c r="Q150" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="R150">
-        <v>0.61424999999999996</v>
+        <v>0.65376999999999996</v>
       </c>
       <c r="S150" t="s">
         <v>121</v>
@@ -12595,10 +12595,10 @@
         <v>0.22889999999999999</v>
       </c>
       <c r="Q151" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="R151">
-        <v>0.58353999999999995</v>
+        <v>0.65376999999999996</v>
       </c>
       <c r="S151" t="s">
         <v>152</v>
@@ -12669,10 +12669,10 @@
         <v>0.20029</v>
       </c>
       <c r="Q152" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="R152">
-        <v>0.58353999999999995</v>
+        <v>0.57204999999999995</v>
       </c>
       <c r="S152" t="s">
         <v>184</v>
@@ -12746,7 +12746,7 @@
         <v>247</v>
       </c>
       <c r="R153">
-        <v>0.55283000000000004</v>
+        <v>0.54481000000000002</v>
       </c>
       <c r="S153" t="s">
         <v>286</v>
@@ -12817,10 +12817,10 @@
         <v>0.20029</v>
       </c>
       <c r="Q154" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="R154">
-        <v>0.55283000000000004</v>
+        <v>0.54481000000000002</v>
       </c>
       <c r="S154" t="s">
         <v>217</v>
@@ -12894,7 +12894,7 @@
         <v>75</v>
       </c>
       <c r="R155">
-        <v>0.55283000000000004</v>
+        <v>0.54481000000000002</v>
       </c>
       <c r="S155" t="s">
         <v>257</v>
@@ -12968,7 +12968,7 @@
         <v>58</v>
       </c>
       <c r="R156">
-        <v>0.4914</v>
+        <v>0.51756999999999997</v>
       </c>
       <c r="S156" t="s">
         <v>254</v>
@@ -13039,10 +13039,10 @@
         <v>0.17166999999999999</v>
       </c>
       <c r="Q157" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="R157">
-        <v>0.42997999999999997</v>
+        <v>0.46309</v>
       </c>
       <c r="S157" t="s">
         <v>74</v>
@@ -13113,10 +13113,10 @@
         <v>0.17166999999999999</v>
       </c>
       <c r="Q158" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="R158">
-        <v>0.42997999999999997</v>
+        <v>0.43585000000000002</v>
       </c>
       <c r="S158" t="s">
         <v>269</v>
@@ -13187,10 +13187,10 @@
         <v>0.14305999999999999</v>
       </c>
       <c r="Q159" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R159">
-        <v>0.39926</v>
+        <v>0.38136999999999999</v>
       </c>
       <c r="S159" t="s">
         <v>150</v>
@@ -13255,10 +13255,10 @@
         <v>0.14305999999999999</v>
       </c>
       <c r="Q160" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="R160">
-        <v>0.33783999999999997</v>
+        <v>0.38136999999999999</v>
       </c>
       <c r="S160" t="s">
         <v>255</v>
@@ -13323,10 +13323,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q161" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="R161">
-        <v>0.33783999999999997</v>
+        <v>0.38136999999999999</v>
       </c>
       <c r="S161" t="s">
         <v>219</v>
@@ -13391,10 +13391,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q162" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="R162">
-        <v>0.30713000000000001</v>
+        <v>0.35413</v>
       </c>
       <c r="S162" t="s">
         <v>250</v>
@@ -13459,10 +13459,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q163" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="R163">
-        <v>0.30713000000000001</v>
+        <v>0.32689000000000001</v>
       </c>
       <c r="S163" t="s">
         <v>248</v>
@@ -13527,10 +13527,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q164" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="R164">
-        <v>0.30713000000000001</v>
+        <v>0.32689000000000001</v>
       </c>
       <c r="S164" t="s">
         <v>143</v>
@@ -13595,10 +13595,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q165" t="s">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="R165">
-        <v>0.27640999999999999</v>
+        <v>0.29965000000000003</v>
       </c>
       <c r="S165" t="s">
         <v>218</v>
@@ -13663,10 +13663,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q166" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="R166">
-        <v>0.27640999999999999</v>
+        <v>0.29965000000000003</v>
       </c>
       <c r="S166" t="s">
         <v>146</v>
@@ -13731,10 +13731,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q167" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="R167">
-        <v>0.27640999999999999</v>
+        <v>0.29965000000000003</v>
       </c>
       <c r="S167" t="s">
         <v>107</v>
@@ -13799,10 +13799,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q168" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="R168">
-        <v>0.27640999999999999</v>
+        <v>0.27240999999999999</v>
       </c>
       <c r="S168" t="s">
         <v>291</v>
@@ -13867,10 +13867,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q169" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="R169">
-        <v>0.2457</v>
+        <v>0.24515999999999999</v>
       </c>
       <c r="S169" t="s">
         <v>203</v>
@@ -13935,10 +13935,10 @@
         <v>0.11445</v>
       </c>
       <c r="Q170" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="R170">
-        <v>0.2457</v>
+        <v>0.21792</v>
       </c>
       <c r="S170" t="s">
         <v>155</v>
@@ -14003,10 +14003,10 @@
         <v>8.584E-2</v>
       </c>
       <c r="Q171" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="R171">
-        <v>0.21498999999999999</v>
+        <v>0.21792</v>
       </c>
       <c r="S171" t="s">
         <v>265</v>
@@ -14071,10 +14071,10 @@
         <v>8.584E-2</v>
       </c>
       <c r="Q172" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="R172">
-        <v>0.21498999999999999</v>
+        <v>0.21792</v>
       </c>
       <c r="S172" t="s">
         <v>252</v>
@@ -14133,10 +14133,10 @@
         <v>8.584E-2</v>
       </c>
       <c r="Q173" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="R173">
-        <v>0.21498999999999999</v>
+        <v>0.21792</v>
       </c>
       <c r="S173" t="s">
         <v>102</v>
@@ -14195,10 +14195,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q174" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R174">
-        <v>0.18428</v>
+        <v>0.19067999999999999</v>
       </c>
       <c r="S174" t="s">
         <v>234</v>
@@ -14257,10 +14257,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q175" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="R175">
-        <v>0.18428</v>
+        <v>0.19067999999999999</v>
       </c>
       <c r="S175" t="s">
         <v>131</v>
@@ -14322,7 +14322,7 @@
         <v>46</v>
       </c>
       <c r="R176">
-        <v>0.18428</v>
+        <v>0.16344</v>
       </c>
       <c r="S176" t="s">
         <v>198</v>
@@ -14375,10 +14375,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q177" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="R177">
-        <v>0.15356</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="S177" t="s">
         <v>336</v>
@@ -14425,10 +14425,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q178" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="R178">
-        <v>0.15356</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="S178" t="s">
         <v>151</v>
@@ -14478,7 +14478,7 @@
         <v>337</v>
       </c>
       <c r="R179">
-        <v>0.15356</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="S179" t="s">
         <v>233</v>
@@ -14525,10 +14525,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q180" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="R180">
-        <v>0.12285</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="S180" t="s">
         <v>292</v>
@@ -14569,10 +14569,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q181" t="s">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>0.12285</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="S181" t="s">
         <v>202</v>
@@ -14613,10 +14613,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q182" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="R182">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S182" t="s">
         <v>128</v>
@@ -14657,10 +14657,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q183" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="R183">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S183" t="s">
         <v>347</v>
@@ -14701,10 +14701,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q184" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="R184">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S184" t="s">
         <v>293</v>
@@ -14739,10 +14739,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q185" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="R185">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S185" t="s">
         <v>118</v>
@@ -14780,7 +14780,7 @@
         <v>190</v>
       </c>
       <c r="R186">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S186" t="s">
         <v>229</v>
@@ -14815,10 +14815,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q187" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R187">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S187" t="s">
         <v>294</v>
@@ -14853,10 +14853,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q188" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="R188">
-        <v>0.12285</v>
+        <v>0.10896</v>
       </c>
       <c r="S188" t="s">
         <v>290</v>
@@ -14891,10 +14891,10 @@
         <v>5.722E-2</v>
       </c>
       <c r="Q189" t="s">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="R189">
-        <v>9.214E-2</v>
+        <v>0.10896</v>
       </c>
       <c r="S189" t="s">
         <v>157</v>
@@ -14929,10 +14929,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q190" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="R190">
-        <v>9.214E-2</v>
+        <v>8.1720000000000001E-2</v>
       </c>
       <c r="S190" t="s">
         <v>338</v>
@@ -14967,10 +14967,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q191" t="s">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="R191">
-        <v>9.214E-2</v>
+        <v>8.1720000000000001E-2</v>
       </c>
       <c r="S191" t="s">
         <v>309</v>
@@ -15008,7 +15008,7 @@
         <v>204</v>
       </c>
       <c r="R192">
-        <v>9.214E-2</v>
+        <v>8.1720000000000001E-2</v>
       </c>
       <c r="S192" t="s">
         <v>276</v>
@@ -15043,10 +15043,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q193" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="R193">
-        <v>9.214E-2</v>
+        <v>8.1720000000000001E-2</v>
       </c>
       <c r="S193" t="s">
         <v>301</v>
@@ -15081,10 +15081,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q194" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="R194">
-        <v>6.1429999999999998E-2</v>
+        <v>8.1720000000000001E-2</v>
       </c>
       <c r="S194" t="s">
         <v>136</v>
@@ -15119,10 +15119,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q195" t="s">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="R195">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S195" t="s">
         <v>50</v>
@@ -15160,7 +15160,7 @@
         <v>253</v>
       </c>
       <c r="R196">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S196" t="s">
         <v>92</v>
@@ -15195,10 +15195,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q197" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="R197">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S197" t="s">
         <v>214</v>
@@ -15233,10 +15233,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q198" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="R198">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S198" t="s">
         <v>329</v>
@@ -15271,10 +15271,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q199" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="R199">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S199" t="s">
         <v>190</v>
@@ -15309,10 +15309,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q200" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
       <c r="R200">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S200" t="s">
         <v>326</v>
@@ -15347,10 +15347,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q201" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="R201">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S201" t="s">
         <v>125</v>
@@ -15385,10 +15385,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q202" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="R202">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S202" t="s">
         <v>348</v>
@@ -15417,10 +15417,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q203" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="R203">
-        <v>6.1429999999999998E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S203" t="s">
         <v>345</v>
@@ -15449,10 +15449,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q204" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="R204">
-        <v>3.0710000000000001E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S204" t="s">
         <v>334</v>
@@ -15481,10 +15481,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q205" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="R205">
-        <v>3.0710000000000001E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S205" t="s">
         <v>124</v>
@@ -15513,10 +15513,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q206" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="R206">
-        <v>3.0710000000000001E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S206" t="s">
         <v>260</v>
@@ -15545,10 +15545,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q207" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="R207">
-        <v>3.0710000000000001E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S207" t="s">
         <v>274</v>
@@ -15580,7 +15580,7 @@
         <v>143</v>
       </c>
       <c r="R208">
-        <v>3.0710000000000001E-2</v>
+        <v>5.4480000000000001E-2</v>
       </c>
       <c r="S208" t="s">
         <v>241</v>
@@ -15609,10 +15609,10 @@
         <v>2.861E-2</v>
       </c>
       <c r="Q209" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="R209">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S209" t="s">
         <v>187</v>
@@ -15641,10 +15641,10 @@
         <v>0</v>
       </c>
       <c r="Q210" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="R210">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S210" t="s">
         <v>169</v>
@@ -15673,10 +15673,10 @@
         <v>0</v>
       </c>
       <c r="Q211" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="R211">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S211" t="s">
         <v>127</v>
@@ -15705,10 +15705,10 @@
         <v>0</v>
       </c>
       <c r="Q212" t="s">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="R212">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S212" t="s">
         <v>349</v>
@@ -15737,10 +15737,10 @@
         <v>0</v>
       </c>
       <c r="Q213" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="R213">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S213" t="s">
         <v>333</v>
@@ -15769,10 +15769,10 @@
         <v>0</v>
       </c>
       <c r="Q214" t="s">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="R214">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S214" t="s">
         <v>235</v>
@@ -15801,10 +15801,10 @@
         <v>0</v>
       </c>
       <c r="Q215" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="R215">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S215" t="s">
         <v>350</v>
@@ -15833,10 +15833,10 @@
         <v>0</v>
       </c>
       <c r="Q216" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="R216">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S216" t="s">
         <v>76</v>
@@ -15865,10 +15865,10 @@
         <v>0</v>
       </c>
       <c r="Q217" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="R217">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S217" t="s">
         <v>97</v>
@@ -15897,10 +15897,10 @@
         <v>0</v>
       </c>
       <c r="Q218" t="s">
-        <v>325</v>
+        <v>121</v>
       </c>
       <c r="R218">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S218" t="s">
         <v>80</v>
@@ -15929,10 +15929,10 @@
         <v>0</v>
       </c>
       <c r="Q219" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="R219">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S219" t="s">
         <v>93</v>
@@ -15961,10 +15961,10 @@
         <v>0</v>
       </c>
       <c r="Q220" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="R220">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S220" t="s">
         <v>211</v>
@@ -15993,10 +15993,10 @@
         <v>0</v>
       </c>
       <c r="Q221" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="R221">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S221" t="s">
         <v>344</v>
@@ -16025,10 +16025,10 @@
         <v>0</v>
       </c>
       <c r="Q222" t="s">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="R222">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S222" t="s">
         <v>145</v>
@@ -16051,10 +16051,10 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q223" t="s">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="R223">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S223" t="s">
         <v>351</v>
@@ -16077,10 +16077,10 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q224" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="R224">
-        <v>3.0710000000000001E-2</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S224" t="s">
         <v>267</v>
@@ -16103,10 +16103,10 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q225" t="s">
-        <v>274</v>
+        <v>155</v>
       </c>
       <c r="R225">
-        <v>0</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S225" t="s">
         <v>247</v>
@@ -16129,10 +16129,10 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q226" t="s">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="R226">
-        <v>0</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S226" t="s">
         <v>239</v>
@@ -16155,10 +16155,10 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q227" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>2.724E-2</v>
       </c>
       <c r="S227" t="s">
         <v>271</v>
@@ -16181,7 +16181,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q228" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="R228">
         <v>0</v>
@@ -16207,7 +16207,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q229" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="R229">
         <v>0</v>
@@ -16233,7 +16233,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q230" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -16259,7 +16259,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q231" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="R231">
         <v>0</v>
@@ -16285,7 +16285,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q232" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="R232">
         <v>0</v>
@@ -16311,7 +16311,7 @@
         <v>1.9230000000000001E-2</v>
       </c>
       <c r="Q233" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="R233">
         <v>0</v>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Q234" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="R234">
         <v>0</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="Q235" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="R235">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="Q236" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="R236">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="Q237" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="R237">
         <v>0</v>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="Q238" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="R238">
         <v>0</v>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="Q239" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R239">
         <v>0</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="Q240" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R240">
         <v>0</v>
@@ -16518,6 +16518,12 @@
       <c r="J241">
         <v>0</v>
       </c>
+      <c r="Q241" t="s">
+        <v>274</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
       <c r="S241" t="s">
         <v>353</v>
       </c>
@@ -16530,6 +16536,12 @@
         <v>155</v>
       </c>
       <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>150</v>
+      </c>
+      <c r="R242">
         <v>0</v>
       </c>
       <c r="S242" t="s">
